--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H2">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I2">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J2">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.155977333333334</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N2">
-        <v>9.467932000000001</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q2">
-        <v>0.3923658299742223</v>
+        <v>0.3151402538733334</v>
       </c>
       <c r="R2">
-        <v>3.531292469768001</v>
+        <v>2.83626228486</v>
       </c>
       <c r="S2">
-        <v>0.03565816201416975</v>
+        <v>0.02322068570140278</v>
       </c>
       <c r="T2">
-        <v>0.03565816201416975</v>
+        <v>0.02322068570140278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H3">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I3">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J3">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q3">
-        <v>0.3936061342904445</v>
+        <v>0.3457253063536667</v>
       </c>
       <c r="R3">
-        <v>3.542455208614</v>
+        <v>3.111527757183</v>
       </c>
       <c r="S3">
-        <v>0.03577088072939944</v>
+        <v>0.02547430415248199</v>
       </c>
       <c r="T3">
-        <v>0.03577088072939944</v>
+        <v>0.02547430415248199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H4">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I4">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J4">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.496042666666666</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N4">
-        <v>7.488128</v>
+        <v>9.981073</v>
       </c>
       <c r="O4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q4">
-        <v>0.3103196725191111</v>
+        <v>0.3633143842243333</v>
       </c>
       <c r="R4">
-        <v>2.792877052672</v>
+        <v>3.269829458019</v>
       </c>
       <c r="S4">
-        <v>0.02820181655369312</v>
+        <v>0.0267703316957498</v>
       </c>
       <c r="T4">
-        <v>0.02820181655369312</v>
+        <v>0.0267703316957498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7328223333333335</v>
+        <v>0.109201</v>
       </c>
       <c r="H5">
-        <v>2.198467</v>
+        <v>0.327603</v>
       </c>
       <c r="I5">
-        <v>0.5872665557027418</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J5">
-        <v>0.5872665557027418</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.155977333333334</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>9.467932000000001</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q5">
-        <v>2.312770673360445</v>
+        <v>0.002196578115</v>
       </c>
       <c r="R5">
-        <v>20.814936060244</v>
+        <v>0.019769203035</v>
       </c>
       <c r="S5">
-        <v>0.2101843358218153</v>
+        <v>0.0001618519037161657</v>
       </c>
       <c r="T5">
-        <v>0.2101843358218153</v>
+        <v>0.0001618519037161657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H6">
         <v>2.198467</v>
       </c>
       <c r="I6">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J6">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.165953666666667</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N6">
-        <v>9.497861</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q6">
-        <v>2.320081553231889</v>
+        <v>2.114832429837778</v>
       </c>
       <c r="R6">
-        <v>20.880733979087</v>
+        <v>19.03349186854</v>
       </c>
       <c r="S6">
-        <v>0.2108487477532498</v>
+        <v>0.155828582863728</v>
       </c>
       <c r="T6">
-        <v>0.2108487477532498</v>
+        <v>0.155828582863728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H7">
         <v>2.198467</v>
       </c>
       <c r="I7">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J7">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.496042666666666</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N7">
-        <v>7.488128</v>
+        <v>9.497861</v>
       </c>
       <c r="O7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q7">
-        <v>1.829155811086222</v>
+        <v>2.320081553231889</v>
       </c>
       <c r="R7">
-        <v>16.462402299776</v>
+        <v>20.880733979087</v>
       </c>
       <c r="S7">
-        <v>0.1662334721276766</v>
+        <v>0.1709520884338502</v>
       </c>
       <c r="T7">
-        <v>0.1662334721276766</v>
+        <v>0.1709520884338502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1693576666666667</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H8">
-        <v>0.508073</v>
+        <v>2.198467</v>
       </c>
       <c r="I8">
-        <v>0.1357192447080439</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J8">
-        <v>0.1357192447080439</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.155977333333334</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N8">
-        <v>9.467932000000001</v>
+        <v>9.981073</v>
       </c>
       <c r="O8">
-        <v>0.3579027849973545</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P8">
-        <v>0.3579027849973545</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q8">
-        <v>0.5344889572262222</v>
+        <v>2.438117735010112</v>
       </c>
       <c r="R8">
-        <v>4.810400615036</v>
+        <v>21.943059615091</v>
       </c>
       <c r="S8">
-        <v>0.04857429565874637</v>
+        <v>0.1796494257139281</v>
       </c>
       <c r="T8">
-        <v>0.04857429565874637</v>
+        <v>0.1796494257139281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1693576666666667</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H9">
-        <v>0.508073</v>
+        <v>2.198467</v>
       </c>
       <c r="I9">
-        <v>0.1357192447080439</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J9">
-        <v>0.1357192447080439</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.165953666666667</v>
+        <v>0.020115</v>
       </c>
       <c r="N9">
-        <v>9.497861</v>
+        <v>0.060345</v>
       </c>
       <c r="O9">
-        <v>0.3590341484727349</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P9">
-        <v>0.3590341484727349</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q9">
-        <v>0.5361785257614444</v>
+        <v>0.014740721235</v>
       </c>
       <c r="R9">
-        <v>4.825606731853</v>
+        <v>0.132666491115</v>
       </c>
       <c r="S9">
-        <v>0.04872784345511526</v>
+        <v>0.001086150215984493</v>
       </c>
       <c r="T9">
-        <v>0.04872784345511526</v>
+        <v>0.001086150215984493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H10">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I10">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J10">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.496042666666666</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N10">
-        <v>7.488128</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O10">
-        <v>0.2830630665299106</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P10">
-        <v>0.2830630665299106</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q10">
-        <v>0.422723961927111</v>
+        <v>1.439612140586667</v>
       </c>
       <c r="R10">
-        <v>3.804515657344</v>
+        <v>12.95650926528</v>
       </c>
       <c r="S10">
-        <v>0.03841710559418224</v>
+        <v>0.1060758841107075</v>
       </c>
       <c r="T10">
-        <v>0.03841710559418224</v>
+        <v>0.1060758841107076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2213483333333333</v>
+        <v>0.498848</v>
       </c>
       <c r="H11">
-        <v>0.664045</v>
+        <v>1.496544</v>
       </c>
       <c r="I11">
-        <v>0.1773833402919521</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J11">
-        <v>0.1773833402919521</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.155977333333334</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N11">
-        <v>9.467932000000001</v>
+        <v>9.497861</v>
       </c>
       <c r="O11">
-        <v>0.3579027849973545</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P11">
-        <v>0.3579027849973545</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q11">
-        <v>0.6985703227711113</v>
+        <v>1.579329654709333</v>
       </c>
       <c r="R11">
-        <v>6.287132904940001</v>
+        <v>14.213966892384</v>
       </c>
       <c r="S11">
-        <v>0.06348599150262312</v>
+        <v>0.1163707812003309</v>
       </c>
       <c r="T11">
-        <v>0.0634859915026231</v>
+        <v>0.1163707812003309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2213483333333333</v>
+        <v>0.498848</v>
       </c>
       <c r="H12">
-        <v>0.664045</v>
+        <v>1.496544</v>
       </c>
       <c r="I12">
-        <v>0.1773833402919521</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J12">
-        <v>0.1773833402919521</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.165953666666667</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N12">
-        <v>9.497861</v>
+        <v>9.981073</v>
       </c>
       <c r="O12">
-        <v>0.3590341484727349</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P12">
-        <v>0.3590341484727349</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q12">
-        <v>0.7007785675272222</v>
+        <v>1.659679434634667</v>
       </c>
       <c r="R12">
-        <v>6.307007107745</v>
+        <v>14.937114911712</v>
       </c>
       <c r="S12">
-        <v>0.0636866765349704</v>
+        <v>0.1222912466530654</v>
       </c>
       <c r="T12">
-        <v>0.06368667653497039</v>
+        <v>0.1222912466530654</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.498848</v>
+      </c>
+      <c r="H13">
+        <v>1.496544</v>
+      </c>
+      <c r="I13">
+        <v>0.3454772778899196</v>
+      </c>
+      <c r="J13">
+        <v>0.3454772778899197</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020115</v>
+      </c>
+      <c r="N13">
+        <v>0.060345</v>
+      </c>
+      <c r="O13">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P13">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q13">
+        <v>0.01003432752</v>
+      </c>
+      <c r="R13">
+        <v>0.09030894768000002</v>
+      </c>
+      <c r="S13">
+        <v>0.0007393659258157144</v>
+      </c>
+      <c r="T13">
+        <v>0.0007393659258157147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1030673333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.309202</v>
+      </c>
+      <c r="I14">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="J14">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.885873333333334</v>
+      </c>
+      <c r="N14">
+        <v>8.657620000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3070415651026022</v>
+      </c>
+      <c r="P14">
+        <v>0.3070415651026022</v>
+      </c>
+      <c r="Q14">
+        <v>0.2974392688044445</v>
+      </c>
+      <c r="R14">
+        <v>2.67695341924</v>
+      </c>
+      <c r="S14">
+        <v>0.02191641242676393</v>
+      </c>
+      <c r="T14">
+        <v>0.02191641242676393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1030673333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.309202</v>
+      </c>
+      <c r="I15">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="J15">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.165953666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.497861</v>
+      </c>
+      <c r="O15">
+        <v>0.3368406220840099</v>
+      </c>
+      <c r="P15">
+        <v>0.3368406220840099</v>
+      </c>
+      <c r="Q15">
+        <v>0.3263064018802222</v>
+      </c>
+      <c r="R15">
+        <v>2.936757616922</v>
+      </c>
+      <c r="S15">
+        <v>0.0240434482973469</v>
+      </c>
+      <c r="T15">
+        <v>0.0240434482973469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.2213483333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.664045</v>
-      </c>
-      <c r="I13">
-        <v>0.1773833402919521</v>
-      </c>
-      <c r="J13">
-        <v>0.1773833402919521</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.496042666666666</v>
-      </c>
-      <c r="N13">
-        <v>7.488128</v>
-      </c>
-      <c r="O13">
-        <v>0.2830630665299106</v>
-      </c>
-      <c r="P13">
-        <v>0.2830630665299106</v>
-      </c>
-      <c r="Q13">
-        <v>0.5524948841955555</v>
-      </c>
-      <c r="R13">
-        <v>4.97245395776</v>
-      </c>
-      <c r="S13">
-        <v>0.05021067225435862</v>
-      </c>
-      <c r="T13">
-        <v>0.05021067225435861</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1030673333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.309202</v>
+      </c>
+      <c r="I16">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="J16">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.327024333333334</v>
+      </c>
+      <c r="N16">
+        <v>9.981073</v>
+      </c>
+      <c r="O16">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="P16">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="Q16">
+        <v>0.3429075259717778</v>
+      </c>
+      <c r="R16">
+        <v>3.086167733746</v>
+      </c>
+      <c r="S16">
+        <v>0.02526667979532919</v>
+      </c>
+      <c r="T16">
+        <v>0.02526667979532919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1030673333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.309202</v>
+      </c>
+      <c r="I17">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="J17">
+        <v>0.07137930142923891</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.020115</v>
+      </c>
+      <c r="N17">
+        <v>0.060345</v>
+      </c>
+      <c r="O17">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P17">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q17">
+        <v>0.00207319941</v>
+      </c>
+      <c r="R17">
+        <v>0.01865879469</v>
+      </c>
+      <c r="S17">
+        <v>0.0001527609097988903</v>
+      </c>
+      <c r="T17">
+        <v>0.0001527609097988904</v>
       </c>
     </row>
   </sheetData>
